--- a/bargeDetails12.xlsx
+++ b/bargeDetails12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44B7A1-B99D-4E21-BFAD-1453EA488CA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB039636-9EF6-4FF5-8709-ADEDB8966B8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -384,7 +385,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -397,7 +398,7 @@
     <col min="6" max="6" width="7.36328125" customWidth="1"/>
     <col min="7" max="7" width="7.90625" customWidth="1"/>
     <col min="8" max="8" width="7.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="9" max="9" width="39.36328125" customWidth="1"/>
     <col min="10" max="10" width="13.1796875" customWidth="1"/>
     <col min="11" max="11" width="27.26953125" customWidth="1"/>
     <col min="12" max="12" width="11.453125" customWidth="1"/>
